--- a/old/sample.xlsx
+++ b/old/sample.xlsx
@@ -16,6 +16,7 @@
     <sheet name="file_name_2" sheetId="2" r:id="rId2"/>
     <sheet name="file_name_3" sheetId="3" r:id="rId3"/>
     <sheet name="file_name_4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1164,7 +1165,7 @@
   <dimension ref="A2:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,7 +1779,7 @@
   <dimension ref="A2:S70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2650,4 +2651,18 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>